--- a/figure/TimeESSTable.xlsx
+++ b/figure/TimeESSTable.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanzhang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanzhang/Documents/UOALearning/OperatorPaper/figure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE8D201-FE64-7940-B0F8-0F4234CE1D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE31807F-3AB8-DA42-B067-1B4058ECB9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41060" yWindow="1460" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{F85EDD7F-AF7D-6B47-B3D8-72BF12E6EC2D}"/>
+    <workbookView xWindow="41040" yWindow="1440" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{F85EDD7F-AF7D-6B47-B3D8-72BF12E6EC2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="RealData" sheetId="1" r:id="rId1"/>
-    <sheet name="Simulated" sheetId="2" r:id="rId2"/>
-    <sheet name="Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="primates" sheetId="4" r:id="rId1"/>
+    <sheet name="RealData" sheetId="1" r:id="rId2"/>
+    <sheet name="Simulated" sheetId="2" r:id="rId3"/>
+    <sheet name="Summary" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>anoliscat.time.df</t>
   </si>
@@ -134,6 +135,21 @@
   </si>
   <si>
     <t>Improved</t>
+  </si>
+  <si>
+    <t>primates.cat.time.df</t>
+  </si>
+  <si>
+    <t>primates.cons.time.df</t>
+  </si>
+  <si>
+    <t>primates</t>
+  </si>
+  <si>
+    <t>rate.mean</t>
+  </si>
+  <si>
+    <t>ucld.stdev</t>
   </si>
 </sst>
 </file>
@@ -200,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,19 +224,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +556,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8915F6D9-2B50-9A4F-906E-CC4BFA26333C}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>14.0615013888889</v>
+      </c>
+      <c r="C2">
+        <v>14.742562222222199</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>14.0615013888889</v>
+      </c>
+      <c r="J2">
+        <v>11.439899722222201</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10.566317222222199</v>
+      </c>
+      <c r="C3">
+        <v>13.58094</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>11.456090555555599</v>
+      </c>
+      <c r="J3">
+        <v>11.6995425</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="13">
+        <v>57.466816310766198</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>164.51943645981601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11.255270555555599</v>
+      </c>
+      <c r="C4">
+        <v>11.3761541666667</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>10.566317222222199</v>
+      </c>
+      <c r="J4">
+        <v>12.075118055555601</v>
+      </c>
+      <c r="P4" s="13">
+        <v>12.56151145833333</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>12.382009222222216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10.88951</v>
+      </c>
+      <c r="C5">
+        <v>11.8952536111111</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>12.006615833333299</v>
+      </c>
+      <c r="J5">
+        <v>12.492468333333299</v>
+      </c>
+      <c r="P5">
+        <f>P3/P4</f>
+        <v>4.574832933232936</v>
+      </c>
+      <c r="Q5">
+        <f>Q3/Q4</f>
+        <v>13.28697414992633</v>
+      </c>
+      <c r="R5" s="12">
+        <f>Q5/P5</f>
+        <v>2.9043627043527271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>11.0415008333333</v>
+      </c>
+      <c r="C6">
+        <v>12.2667594444444</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>11.255270555555599</v>
+      </c>
+      <c r="J6">
+        <v>12.9018388888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>11.9570233333333</v>
+      </c>
+      <c r="C7">
+        <v>11.205085</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>12.9170636111111</v>
+      </c>
+      <c r="J7">
+        <v>14.742562222222199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>12.9517111111111</v>
+      </c>
+      <c r="C8">
+        <v>10.9594413888889</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>10.88951</v>
+      </c>
+      <c r="J8">
+        <v>13.58094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>13.7545747222222</v>
+      </c>
+      <c r="C9">
+        <v>11.7930311111111</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>10.828288888888901</v>
+      </c>
+      <c r="J9">
+        <v>11.3761541666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>11.8901947222222</v>
+      </c>
+      <c r="C10">
+        <v>11.9204127777778</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>11.0415008333333</v>
+      </c>
+      <c r="J10">
+        <v>12.0006019444444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>AVERAGE(B2:B10)</f>
+        <v>12.040844876543201</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(C2:C10)</f>
+        <v>12.193293302469135</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>11.9570233333333</v>
+      </c>
+      <c r="J11">
+        <v>11.8952536111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>12.9517111111111</v>
+      </c>
+      <c r="J12">
+        <v>12.43848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>11.884188611111099</v>
+      </c>
+      <c r="J13">
+        <v>12.2667594444444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>89.488002290552799</v>
+      </c>
+      <c r="F14">
+        <v>394.47943011948797</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>16.6060266666667</v>
+      </c>
+      <c r="J14">
+        <v>11.6699286111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>11.525486388888901</v>
+      </c>
+      <c r="J15">
+        <v>11.205085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>11.8901947222222</v>
+      </c>
+      <c r="J16">
+        <v>10.9594413888889</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>10.766971111111101</v>
+      </c>
+      <c r="J17">
+        <v>11.9531169444444</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>12.763298333333299</v>
+      </c>
+      <c r="J18">
+        <v>11.7930311111111</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>15.5968372222222</v>
+      </c>
+      <c r="J19">
+        <v>11.9204127777778</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>16.5117580555556</v>
+      </c>
+      <c r="J20">
+        <v>14.8954902777778</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>13.7545747222222</v>
+      </c>
+      <c r="J21">
+        <v>14.334059444444399</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I22" s="11">
+        <f>AVERAGE(I2:I21)</f>
+        <v>12.56151145833333</v>
+      </c>
+      <c r="J22" s="11">
+        <f>AVERAGE(J2:J21)</f>
+        <v>12.382009222222216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172AB42B-0A96-2E4A-8A4C-8A778556117B}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:N4"/>
     </sheetView>
   </sheetViews>
@@ -1143,7 +1579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A31CF5-70EF-7042-832A-918C9B2E8EA6}">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -1597,12 +2033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6D295B-BE96-1348-956A-1C8D9C19201E}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1644,26 +2080,26 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0.90526577777777817</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>486.31558537710401</v>
       </c>
       <c r="F2">
         <f>E2/C2</f>
         <v>537.20752216094843</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <f>F3/F2</f>
         <v>6.6852866564152551</v>
       </c>
@@ -1672,47 +2108,47 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.62314854166666667</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8">
+      <c r="D3" s="8"/>
+      <c r="E3" s="6">
         <v>2237.9671227121698</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" si="0">E3/C3</f>
         <v>3591.3862796284911</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>5.1008655000000003</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>383.98296491351499</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>75.278002314218043</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <f t="shared" ref="G4" si="1">F5/F4</f>
         <v>7.1708835645292712</v>
       </c>
@@ -1721,48 +2157,48 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>4.4077147638888903</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8">
+      <c r="D5" s="8"/>
+      <c r="E5" s="6">
         <v>2379.32757916015</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>539.80978956562262</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>5.343634486111112</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>360.86210589498802</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>67.531210608233295</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <f t="shared" ref="G6" si="2">F7/F6</f>
         <v>2.2589500636345812</v>
       </c>
@@ -1772,48 +2208,48 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>5.2127877916666669</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8">
+      <c r="D7" s="8"/>
+      <c r="E7" s="6">
         <v>795.20886192334899</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>152.5496325007889</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.46440565277777779</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>793.26776142314202</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>1708.1354558850032</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <f t="shared" ref="G8" si="3">F9/F8</f>
         <v>3.7126385030137619</v>
       </c>
@@ -1823,48 +2259,48 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.48048477777777787</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8">
+      <c r="D9" s="8"/>
+      <c r="E9" s="6">
         <v>3047.0852518278698</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>6341.6894618816277</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1.9269506944444443</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>1599.4228182684101</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>830.02788959763018</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <f t="shared" ref="G10" si="4">F11/F10</f>
         <v>15.684014911977778</v>
       </c>
@@ -1874,29 +2310,75 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.48048477777777787</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8">
+      <c r="D11" s="8"/>
+      <c r="E11" s="6">
         <v>6255.0324223725202</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>13018.169797806677</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
+    <row r="12" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>12.56151145833333</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="13">
+        <v>57.466816310766198</v>
+      </c>
+      <c r="F12">
+        <f>E12/C12</f>
+        <v>4.574832933232936</v>
+      </c>
+      <c r="G12" s="9">
+        <f>F13/F12</f>
+        <v>2.9043627043527271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12.382009222222216</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="13">
+        <v>164.51943645981601</v>
+      </c>
+      <c r="F13">
+        <f>E13/C13</f>
+        <v>13.28697414992633</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
